--- a/www.eia.gov/electricity/monthly/xls/table_1_10_b.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_1_10_b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="81">
   <si>
     <t>Table 1.10.B. Utility Scale Facility Net Generation from Hydroelectric (Conventional) Power</t>
   </si>
   <si>
-    <t>by State, by Sector, Year-to-Date through October 2016 and 2015 (Thousand Megawatthours)</t>
+    <t>by State, by Sector, Year-to-Date through November 2016 and 2015 (Thousand Megawatthours)</t>
   </si>
   <si>
     <t/>
@@ -67,10 +67,10 @@
 and State</t>
   </si>
   <si>
-    <t>October 2016 YTD</t>
-  </si>
-  <si>
-    <t>October 2015 YTD</t>
+    <t>November 2016 YTD</t>
+  </si>
+  <si>
+    <t>November 2015 YTD</t>
   </si>
   <si>
     <t>Percentage
@@ -1392,37 +1392,37 @@
         <v>16</v>
       </c>
       <c r="B7" s="10">
-        <v>5356</v>
+        <v>5715</v>
       </c>
       <c r="C7" s="10">
-        <v>5726</v>
+        <v>6200</v>
       </c>
       <c r="D7" s="11">
-        <v>-6.5000000000000002E-2</v>
+        <v>-7.8E-2</v>
       </c>
       <c r="E7" s="10">
-        <v>766</v>
+        <v>812</v>
       </c>
       <c r="F7" s="10">
-        <v>754</v>
+        <v>824</v>
       </c>
       <c r="G7" s="10">
-        <v>4300</v>
+        <v>4595</v>
       </c>
       <c r="H7" s="10">
-        <v>4640</v>
+        <v>5015</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J7" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K7" s="10">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="L7" s="10">
-        <v>327</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1430,25 +1430,25 @@
         <v>18</v>
       </c>
       <c r="B8" s="13">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="C8" s="13">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="D8" s="14">
-        <v>1.4999999999999999E-2</v>
+        <v>-1.7000000000000001E-2</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="13">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G8" s="13">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="H8" s="13">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="I8" s="13">
         <v>0</v>
@@ -1468,13 +1468,13 @@
         <v>19</v>
       </c>
       <c r="B9" s="13">
-        <v>2555</v>
+        <v>2741</v>
       </c>
       <c r="C9" s="13">
-        <v>2846</v>
+        <v>3070</v>
       </c>
       <c r="D9" s="14">
-        <v>-0.10299999999999999</v>
+        <v>-0.107</v>
       </c>
       <c r="E9" s="13">
         <v>0</v>
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="13">
-        <v>2274</v>
+        <v>2442</v>
       </c>
       <c r="H9" s="13">
-        <v>2523</v>
+        <v>2718</v>
       </c>
       <c r="I9" s="13">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>0</v>
       </c>
       <c r="K9" s="13">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="L9" s="13">
-        <v>324</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1506,31 +1506,31 @@
         <v>20</v>
       </c>
       <c r="B10" s="13">
-        <v>664</v>
+        <v>708</v>
       </c>
       <c r="C10" s="13">
-        <v>658</v>
+        <v>724</v>
       </c>
       <c r="D10" s="14">
-        <v>0.01</v>
+        <v>-2.1999999999999999E-2</v>
       </c>
       <c r="E10" s="13">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="F10" s="13">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="G10" s="13">
-        <v>479</v>
+        <v>513</v>
       </c>
       <c r="H10" s="13">
-        <v>490</v>
+        <v>539</v>
       </c>
       <c r="I10" s="13" t="s">
         <v>17</v>
       </c>
       <c r="J10" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K10" s="13" t="s">
         <v>17</v>
@@ -1544,25 +1544,25 @@
         <v>21</v>
       </c>
       <c r="B11" s="13">
-        <v>955</v>
+        <v>1016</v>
       </c>
       <c r="C11" s="13">
-        <v>1046</v>
+        <v>1128</v>
       </c>
       <c r="D11" s="14">
-        <v>-8.6999999999999994E-2</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="E11" s="13">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="F11" s="13">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="G11" s="13">
-        <v>718</v>
+        <v>762</v>
       </c>
       <c r="H11" s="13">
-        <v>796</v>
+        <v>854</v>
       </c>
       <c r="I11" s="13">
         <v>0</v>
@@ -1620,25 +1620,25 @@
         <v>23</v>
       </c>
       <c r="B13" s="13">
-        <v>923</v>
+        <v>979</v>
       </c>
       <c r="C13" s="13">
-        <v>921</v>
+        <v>1003</v>
       </c>
       <c r="D13" s="14">
-        <v>2E-3</v>
+        <v>-2.3E-2</v>
       </c>
       <c r="E13" s="13">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="F13" s="13">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="G13" s="13">
-        <v>591</v>
+        <v>629</v>
       </c>
       <c r="H13" s="13">
-        <v>597</v>
+        <v>650</v>
       </c>
       <c r="I13" s="13">
         <v>0</v>
@@ -1658,25 +1658,25 @@
         <v>24</v>
       </c>
       <c r="B14" s="10">
-        <v>24335</v>
+        <v>26572</v>
       </c>
       <c r="C14" s="10">
-        <v>23588</v>
+        <v>26056</v>
       </c>
       <c r="D14" s="11">
-        <v>3.2000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E14" s="10">
-        <v>19300</v>
+        <v>21237</v>
       </c>
       <c r="F14" s="10">
-        <v>18366</v>
+        <v>20315</v>
       </c>
       <c r="G14" s="10">
-        <v>4984</v>
+        <v>5279</v>
       </c>
       <c r="H14" s="10">
-        <v>5168</v>
+        <v>5681</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>17</v>
@@ -1688,7 +1688,7 @@
         <v>17</v>
       </c>
       <c r="L14" s="10">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1699,7 +1699,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>17</v>
@@ -1714,7 +1714,7 @@
         <v>17</v>
       </c>
       <c r="H15" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I15" s="13">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>26</v>
       </c>
       <c r="B16" s="13">
-        <v>22281</v>
+        <v>24400</v>
       </c>
       <c r="C16" s="13">
-        <v>21404</v>
+        <v>23691</v>
       </c>
       <c r="D16" s="14">
-        <v>4.1000000000000002E-2</v>
+        <v>0.03</v>
       </c>
       <c r="E16" s="13">
-        <v>19248</v>
+        <v>21183</v>
       </c>
       <c r="F16" s="13">
-        <v>18313</v>
+        <v>20258</v>
       </c>
       <c r="G16" s="13">
-        <v>2981</v>
+        <v>3162</v>
       </c>
       <c r="H16" s="13">
-        <v>3036</v>
+        <v>3373</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>17</v>
@@ -1764,7 +1764,7 @@
         <v>17</v>
       </c>
       <c r="L16" s="13">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1772,25 +1772,25 @@
         <v>27</v>
       </c>
       <c r="B17" s="13">
-        <v>2035</v>
+        <v>2152</v>
       </c>
       <c r="C17" s="13">
-        <v>2176</v>
+        <v>2357</v>
       </c>
       <c r="D17" s="14">
-        <v>-6.5000000000000002E-2</v>
+        <v>-8.6999999999999994E-2</v>
       </c>
       <c r="E17" s="13">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F17" s="13">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G17" s="13">
-        <v>1984</v>
+        <v>2098</v>
       </c>
       <c r="H17" s="13">
-        <v>2123</v>
+        <v>2300</v>
       </c>
       <c r="I17" s="13">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>28</v>
       </c>
       <c r="B18" s="10">
-        <v>4135</v>
+        <v>4555</v>
       </c>
       <c r="C18" s="10">
-        <v>3620</v>
+        <v>4230</v>
       </c>
       <c r="D18" s="11">
-        <v>0.14199999999999999</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="E18" s="10">
-        <v>3580</v>
+        <v>3950</v>
       </c>
       <c r="F18" s="10">
-        <v>3116</v>
+        <v>3635</v>
       </c>
       <c r="G18" s="10">
-        <v>395</v>
+        <v>428</v>
       </c>
       <c r="H18" s="10">
-        <v>357</v>
+        <v>422</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>17</v>
@@ -1837,10 +1837,10 @@
         <v>1</v>
       </c>
       <c r="K18" s="10">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="L18" s="10">
-        <v>146</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1848,25 +1848,25 @@
         <v>29</v>
       </c>
       <c r="B19" s="13">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C19" s="13">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D19" s="14">
-        <v>0.09</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>17</v>
       </c>
       <c r="F19" s="13">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G19" s="13">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H19" s="13">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I19" s="13" t="s">
         <v>17</v>
@@ -1886,19 +1886,19 @@
         <v>30</v>
       </c>
       <c r="B20" s="13">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="C20" s="13">
-        <v>296</v>
+        <v>348</v>
       </c>
       <c r="D20" s="14">
-        <v>0.17199999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="E20" s="13">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="F20" s="13">
-        <v>296</v>
+        <v>348</v>
       </c>
       <c r="G20" s="13">
         <v>0</v>
@@ -1924,25 +1924,25 @@
         <v>31</v>
       </c>
       <c r="B21" s="13">
-        <v>1278</v>
+        <v>1402</v>
       </c>
       <c r="C21" s="13">
-        <v>1128</v>
+        <v>1262</v>
       </c>
       <c r="D21" s="14">
-        <v>0.13300000000000001</v>
+        <v>0.111</v>
       </c>
       <c r="E21" s="13">
-        <v>1176</v>
+        <v>1291</v>
       </c>
       <c r="F21" s="13">
-        <v>1043</v>
+        <v>1168</v>
       </c>
       <c r="G21" s="13">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H21" s="13">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I21" s="13">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>17</v>
       </c>
       <c r="L21" s="13">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1962,25 +1962,25 @@
         <v>32</v>
       </c>
       <c r="B22" s="13">
-        <v>431</v>
+        <v>478</v>
       </c>
       <c r="C22" s="13">
-        <v>326</v>
+        <v>404</v>
       </c>
       <c r="D22" s="14">
-        <v>0.32300000000000001</v>
+        <v>0.184</v>
       </c>
       <c r="E22" s="13">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="F22" s="13">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="G22" s="13">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="H22" s="13">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="I22" s="13">
         <v>0</v>
@@ -2000,25 +2000,25 @@
         <v>33</v>
       </c>
       <c r="B23" s="13">
-        <v>1969</v>
+        <v>2170</v>
       </c>
       <c r="C23" s="13">
-        <v>1769</v>
+        <v>2104</v>
       </c>
       <c r="D23" s="14">
-        <v>0.113</v>
+        <v>3.1E-2</v>
       </c>
       <c r="E23" s="13">
-        <v>1749</v>
+        <v>1926</v>
       </c>
       <c r="F23" s="13">
-        <v>1568</v>
+        <v>1865</v>
       </c>
       <c r="G23" s="13">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="H23" s="13">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="I23" s="13">
         <v>0</v>
@@ -2027,10 +2027,10 @@
         <v>0</v>
       </c>
       <c r="K23" s="13">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="L23" s="13">
-        <v>123</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2038,25 +2038,25 @@
         <v>34</v>
       </c>
       <c r="B24" s="10">
-        <v>9235</v>
+        <v>9997</v>
       </c>
       <c r="C24" s="10">
-        <v>10254</v>
+        <v>11042</v>
       </c>
       <c r="D24" s="11">
-        <v>-9.9000000000000005E-2</v>
+        <v>-9.5000000000000001E-2</v>
       </c>
       <c r="E24" s="10">
-        <v>8949</v>
+        <v>9683</v>
       </c>
       <c r="F24" s="10">
-        <v>10007</v>
+        <v>10761</v>
       </c>
       <c r="G24" s="10">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="H24" s="10">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="I24" s="10">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>0</v>
       </c>
       <c r="K24" s="10">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="L24" s="10">
-        <v>86</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2076,25 +2076,25 @@
         <v>35</v>
       </c>
       <c r="B25" s="13">
-        <v>774</v>
+        <v>856</v>
       </c>
       <c r="C25" s="13">
-        <v>824</v>
+        <v>884</v>
       </c>
       <c r="D25" s="14">
-        <v>-6.0999999999999999E-2</v>
+        <v>-3.1E-2</v>
       </c>
       <c r="E25" s="13">
-        <v>769</v>
+        <v>851</v>
       </c>
       <c r="F25" s="13">
-        <v>819</v>
+        <v>878</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H25" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I25" s="13">
         <v>0</v>
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="C26" s="13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>17</v>
@@ -2132,7 +2132,7 @@
         <v>17</v>
       </c>
       <c r="H26" s="13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I26" s="13">
         <v>0</v>
@@ -2152,26 +2152,26 @@
         <v>37</v>
       </c>
       <c r="B27" s="13">
-        <v>722</v>
+        <v>796</v>
       </c>
       <c r="C27" s="13">
-        <v>641</v>
+        <v>733</v>
       </c>
       <c r="D27" s="14">
-        <v>0.128</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="E27" s="13">
-        <v>458</v>
+        <v>506</v>
       </c>
       <c r="F27" s="13">
-        <v>415</v>
+        <v>475</v>
       </c>
       <c r="G27" s="13">
+        <v>175</v>
+      </c>
+      <c r="H27" s="13">
         <v>159</v>
       </c>
-      <c r="H27" s="13">
-        <v>139</v>
-      </c>
       <c r="I27" s="13">
         <v>0</v>
       </c>
@@ -2179,10 +2179,10 @@
         <v>0</v>
       </c>
       <c r="K27" s="13">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="L27" s="13">
-        <v>86</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -2190,19 +2190,19 @@
         <v>38</v>
       </c>
       <c r="B28" s="13">
-        <v>1169</v>
+        <v>1199</v>
       </c>
       <c r="C28" s="13">
-        <v>1269</v>
+        <v>1332</v>
       </c>
       <c r="D28" s="14">
-        <v>-7.9000000000000001E-2</v>
+        <v>-0.1</v>
       </c>
       <c r="E28" s="13">
-        <v>1169</v>
+        <v>1199</v>
       </c>
       <c r="F28" s="13">
-        <v>1269</v>
+        <v>1332</v>
       </c>
       <c r="G28" s="13">
         <v>0</v>
@@ -2228,19 +2228,19 @@
         <v>39</v>
       </c>
       <c r="B29" s="13">
-        <v>1409</v>
+        <v>1554</v>
       </c>
       <c r="C29" s="13">
-        <v>1446</v>
+        <v>1552</v>
       </c>
       <c r="D29" s="14">
-        <v>-2.5999999999999999E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="E29" s="13">
-        <v>1409</v>
+        <v>1554</v>
       </c>
       <c r="F29" s="13">
-        <v>1446</v>
+        <v>1552</v>
       </c>
       <c r="G29" s="13">
         <v>0</v>
@@ -2266,19 +2266,19 @@
         <v>40</v>
       </c>
       <c r="B30" s="13">
-        <v>1646</v>
+        <v>1765</v>
       </c>
       <c r="C30" s="13">
-        <v>1840</v>
+        <v>1957</v>
       </c>
       <c r="D30" s="14">
-        <v>-0.105</v>
+        <v>-9.8000000000000004E-2</v>
       </c>
       <c r="E30" s="13">
-        <v>1646</v>
+        <v>1765</v>
       </c>
       <c r="F30" s="13">
-        <v>1840</v>
+        <v>1957</v>
       </c>
       <c r="G30" s="13">
         <v>0</v>
@@ -2304,19 +2304,19 @@
         <v>41</v>
       </c>
       <c r="B31" s="13">
-        <v>3498</v>
+        <v>3809</v>
       </c>
       <c r="C31" s="13">
-        <v>4218</v>
+        <v>4567</v>
       </c>
       <c r="D31" s="14">
-        <v>-0.17</v>
+        <v>-0.16600000000000001</v>
       </c>
       <c r="E31" s="13">
-        <v>3498</v>
+        <v>3809</v>
       </c>
       <c r="F31" s="13">
-        <v>4218</v>
+        <v>4567</v>
       </c>
       <c r="G31" s="13">
         <v>0</v>
@@ -2342,37 +2342,37 @@
         <v>42</v>
       </c>
       <c r="B32" s="10">
-        <v>12969</v>
+        <v>13604</v>
       </c>
       <c r="C32" s="10">
-        <v>10684</v>
+        <v>12576</v>
       </c>
       <c r="D32" s="11">
-        <v>0.214</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E32" s="10">
-        <v>10860</v>
+        <v>11375</v>
       </c>
       <c r="F32" s="10">
-        <v>8420</v>
+        <v>10088</v>
       </c>
       <c r="G32" s="10">
-        <v>1633</v>
+        <v>1737</v>
       </c>
       <c r="H32" s="10">
-        <v>1776</v>
+        <v>1946</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J32" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K32" s="10">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="L32" s="10">
-        <v>479</v>
+        <v>530</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2456,19 +2456,19 @@
         <v>46</v>
       </c>
       <c r="B35" s="13">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="C35" s="13">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="D35" s="14">
-        <v>5.6000000000000001E-2</v>
+        <v>-3.4000000000000002E-2</v>
       </c>
       <c r="E35" s="13">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="F35" s="13">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="G35" s="13">
         <v>0</v>
@@ -2494,25 +2494,25 @@
         <v>47</v>
       </c>
       <c r="B36" s="13">
-        <v>2712</v>
+        <v>2878</v>
       </c>
       <c r="C36" s="13">
-        <v>2214</v>
+        <v>2597</v>
       </c>
       <c r="D36" s="14">
-        <v>0.22500000000000001</v>
+        <v>0.108</v>
       </c>
       <c r="E36" s="13">
-        <v>2686</v>
+        <v>2850</v>
       </c>
       <c r="F36" s="13">
-        <v>2191</v>
+        <v>2570</v>
       </c>
       <c r="G36" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H36" s="13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I36" s="13">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>17</v>
       </c>
       <c r="L36" s="13">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2532,13 +2532,13 @@
         <v>48</v>
       </c>
       <c r="B37" s="13">
-        <v>1201</v>
+        <v>1260</v>
       </c>
       <c r="C37" s="13">
-        <v>1368</v>
+        <v>1474</v>
       </c>
       <c r="D37" s="14">
-        <v>-0.122</v>
+        <v>-0.14499999999999999</v>
       </c>
       <c r="E37" s="13">
         <v>0</v>
@@ -2547,10 +2547,10 @@
         <v>0</v>
       </c>
       <c r="G37" s="13">
-        <v>1201</v>
+        <v>1260</v>
       </c>
       <c r="H37" s="13">
-        <v>1368</v>
+        <v>1474</v>
       </c>
       <c r="I37" s="13">
         <v>0</v>
@@ -2570,31 +2570,31 @@
         <v>49</v>
       </c>
       <c r="B38" s="13">
-        <v>4112</v>
+        <v>4272</v>
       </c>
       <c r="C38" s="13">
-        <v>3298</v>
+        <v>3964</v>
       </c>
       <c r="D38" s="14">
-        <v>0.247</v>
+        <v>7.8E-2</v>
       </c>
       <c r="E38" s="13">
-        <v>4059</v>
+        <v>4216</v>
       </c>
       <c r="F38" s="13">
-        <v>3259</v>
+        <v>3918</v>
       </c>
       <c r="G38" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H38" s="13">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I38" s="13" t="s">
         <v>17</v>
       </c>
       <c r="J38" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K38" s="13" t="s">
         <v>17</v>
@@ -2608,31 +2608,31 @@
         <v>50</v>
       </c>
       <c r="B39" s="13">
-        <v>2175</v>
+        <v>2275</v>
       </c>
       <c r="C39" s="13">
-        <v>1586</v>
+        <v>2103</v>
       </c>
       <c r="D39" s="14">
-        <v>0.371</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E39" s="13">
-        <v>2117</v>
+        <v>2215</v>
       </c>
       <c r="F39" s="13">
-        <v>1544</v>
+        <v>2047</v>
       </c>
       <c r="G39" s="13">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H39" s="13">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I39" s="13" t="s">
         <v>17</v>
       </c>
       <c r="J39" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K39" s="13">
         <v>0</v>
@@ -2646,25 +2646,25 @@
         <v>51</v>
       </c>
       <c r="B40" s="13">
-        <v>1394</v>
+        <v>1444</v>
       </c>
       <c r="C40" s="13">
-        <v>922</v>
+        <v>975</v>
       </c>
       <c r="D40" s="14">
-        <v>0.51200000000000001</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="E40" s="13">
-        <v>1325</v>
+        <v>1370</v>
       </c>
       <c r="F40" s="13">
-        <v>853</v>
+        <v>902</v>
       </c>
       <c r="G40" s="13">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H40" s="13">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I40" s="13">
         <v>0</v>
@@ -2684,25 +2684,25 @@
         <v>52</v>
       </c>
       <c r="B41" s="13">
-        <v>1187</v>
+        <v>1273</v>
       </c>
       <c r="C41" s="13">
-        <v>1118</v>
+        <v>1252</v>
       </c>
       <c r="D41" s="14">
-        <v>6.2E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="E41" s="13">
-        <v>484</v>
+        <v>520</v>
       </c>
       <c r="F41" s="13">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="G41" s="13">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="H41" s="13">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="I41" s="13">
         <v>0</v>
@@ -2711,10 +2711,10 @@
         <v>0</v>
       </c>
       <c r="K41" s="13">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="L41" s="13">
-        <v>454</v>
+        <v>501</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2722,25 +2722,25 @@
         <v>53</v>
       </c>
       <c r="B42" s="10">
-        <v>16416</v>
+        <v>17231</v>
       </c>
       <c r="C42" s="10">
-        <v>17615</v>
+        <v>19836</v>
       </c>
       <c r="D42" s="11">
-        <v>-6.8000000000000005E-2</v>
+        <v>-0.13100000000000001</v>
       </c>
       <c r="E42" s="10">
-        <v>16409</v>
+        <v>17224</v>
       </c>
       <c r="F42" s="10">
-        <v>17608</v>
+        <v>19828</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>17</v>
       </c>
       <c r="H42" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I42" s="10">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>54</v>
       </c>
       <c r="B43" s="13">
-        <v>6971</v>
+        <v>7239</v>
       </c>
       <c r="C43" s="13">
-        <v>7365</v>
+        <v>8389</v>
       </c>
       <c r="D43" s="14">
-        <v>-5.2999999999999999E-2</v>
+        <v>-0.13700000000000001</v>
       </c>
       <c r="E43" s="13">
-        <v>6971</v>
+        <v>7239</v>
       </c>
       <c r="F43" s="13">
-        <v>7365</v>
+        <v>8389</v>
       </c>
       <c r="G43" s="13">
         <v>0</v>
@@ -2798,25 +2798,25 @@
         <v>55</v>
       </c>
       <c r="B44" s="13">
-        <v>2954</v>
+        <v>3140</v>
       </c>
       <c r="C44" s="13">
-        <v>2781</v>
+        <v>3039</v>
       </c>
       <c r="D44" s="14">
-        <v>6.2E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="E44" s="13">
-        <v>2947</v>
+        <v>3133</v>
       </c>
       <c r="F44" s="13">
-        <v>2774</v>
+        <v>3031</v>
       </c>
       <c r="G44" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H44" s="13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I44" s="13">
         <v>0</v>
@@ -2874,19 +2874,19 @@
         <v>57</v>
       </c>
       <c r="B46" s="13">
-        <v>6491</v>
+        <v>6851</v>
       </c>
       <c r="C46" s="13">
-        <v>7469</v>
+        <v>8408</v>
       </c>
       <c r="D46" s="14">
-        <v>-0.13100000000000001</v>
+        <v>-0.185</v>
       </c>
       <c r="E46" s="13">
-        <v>6491</v>
+        <v>6851</v>
       </c>
       <c r="F46" s="13">
-        <v>7469</v>
+        <v>8408</v>
       </c>
       <c r="G46" s="13">
         <v>0</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="B47" s="10">
-        <v>7408</v>
+        <v>7679</v>
       </c>
       <c r="C47" s="10">
-        <v>6707</v>
+        <v>7137</v>
       </c>
       <c r="D47" s="11">
-        <v>0.105</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="E47" s="10">
-        <v>6353</v>
+        <v>6563</v>
       </c>
       <c r="F47" s="10">
-        <v>5797</v>
+        <v>6176</v>
       </c>
       <c r="G47" s="10">
-        <v>1055</v>
+        <v>1116</v>
       </c>
       <c r="H47" s="10">
-        <v>910</v>
+        <v>961</v>
       </c>
       <c r="I47" s="10">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>59</v>
       </c>
       <c r="B48" s="13">
-        <v>3155</v>
+        <v>3269</v>
       </c>
       <c r="C48" s="13">
-        <v>2976</v>
+        <v>3160</v>
       </c>
       <c r="D48" s="14">
-        <v>0.06</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="E48" s="13">
-        <v>3113</v>
+        <v>3224</v>
       </c>
       <c r="F48" s="13">
-        <v>2936</v>
+        <v>3117</v>
       </c>
       <c r="G48" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H48" s="13">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I48" s="13">
         <v>0</v>
@@ -2988,13 +2988,13 @@
         <v>60</v>
       </c>
       <c r="B49" s="13">
-        <v>984</v>
+        <v>1040</v>
       </c>
       <c r="C49" s="13">
-        <v>838</v>
+        <v>883</v>
       </c>
       <c r="D49" s="14">
-        <v>0.17399999999999999</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="E49" s="13">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="G49" s="13">
-        <v>984</v>
+        <v>1040</v>
       </c>
       <c r="H49" s="13">
-        <v>838</v>
+        <v>883</v>
       </c>
       <c r="I49" s="13">
         <v>0</v>
@@ -3026,19 +3026,19 @@
         <v>61</v>
       </c>
       <c r="B50" s="13">
-        <v>2246</v>
+        <v>2309</v>
       </c>
       <c r="C50" s="13">
-        <v>2085</v>
+        <v>2221</v>
       </c>
       <c r="D50" s="14">
-        <v>7.6999999999999999E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E50" s="13">
-        <v>2246</v>
+        <v>2309</v>
       </c>
       <c r="F50" s="13">
-        <v>2085</v>
+        <v>2221</v>
       </c>
       <c r="G50" s="13">
         <v>0</v>
@@ -3064,25 +3064,25 @@
         <v>62</v>
       </c>
       <c r="B51" s="13">
-        <v>1023</v>
+        <v>1061</v>
       </c>
       <c r="C51" s="13">
-        <v>808</v>
+        <v>873</v>
       </c>
       <c r="D51" s="14">
-        <v>0.26600000000000001</v>
+        <v>0.215</v>
       </c>
       <c r="E51" s="13">
-        <v>994</v>
+        <v>1030</v>
       </c>
       <c r="F51" s="13">
-        <v>776</v>
+        <v>838</v>
       </c>
       <c r="G51" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H51" s="13">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I51" s="13">
         <v>0</v>
@@ -3102,25 +3102,25 @@
         <v>63</v>
       </c>
       <c r="B52" s="10">
-        <v>27136</v>
+        <v>29658</v>
       </c>
       <c r="C52" s="10">
-        <v>26735</v>
+        <v>28452</v>
       </c>
       <c r="D52" s="11">
-        <v>1.4999999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="E52" s="10">
-        <v>26077</v>
+        <v>28528</v>
       </c>
       <c r="F52" s="10">
-        <v>25734</v>
+        <v>27416</v>
       </c>
       <c r="G52" s="10">
-        <v>1051</v>
+        <v>1121</v>
       </c>
       <c r="H52" s="10">
-        <v>995</v>
+        <v>1030</v>
       </c>
       <c r="I52" s="10" t="s">
         <v>17</v>
@@ -3140,19 +3140,19 @@
         <v>64</v>
       </c>
       <c r="B53" s="13">
-        <v>6097</v>
+        <v>6565</v>
       </c>
       <c r="C53" s="13">
-        <v>5584</v>
+        <v>6004</v>
       </c>
       <c r="D53" s="14">
-        <v>9.1999999999999998E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E53" s="13">
-        <v>6097</v>
+        <v>6565</v>
       </c>
       <c r="F53" s="13">
-        <v>5584</v>
+        <v>6004</v>
       </c>
       <c r="G53" s="13">
         <v>0</v>
@@ -3178,25 +3178,25 @@
         <v>65</v>
       </c>
       <c r="B54" s="13">
-        <v>1660</v>
+        <v>1760</v>
       </c>
       <c r="C54" s="13">
-        <v>1422</v>
+        <v>1436</v>
       </c>
       <c r="D54" s="14">
-        <v>0.16700000000000001</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="E54" s="13">
-        <v>1485</v>
+        <v>1568</v>
       </c>
       <c r="F54" s="13">
-        <v>1255</v>
+        <v>1267</v>
       </c>
       <c r="G54" s="13">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="H54" s="13">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I54" s="13" t="s">
         <v>17</v>
@@ -3216,25 +3216,25 @@
         <v>66</v>
       </c>
       <c r="B55" s="13">
-        <v>8167</v>
+        <v>8766</v>
       </c>
       <c r="C55" s="13">
-        <v>7852</v>
+        <v>8259</v>
       </c>
       <c r="D55" s="14">
-        <v>0.04</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="E55" s="13">
-        <v>7435</v>
+        <v>7996</v>
       </c>
       <c r="F55" s="13">
-        <v>7170</v>
+        <v>7554</v>
       </c>
       <c r="G55" s="13">
-        <v>732</v>
+        <v>771</v>
       </c>
       <c r="H55" s="13">
-        <v>682</v>
+        <v>704</v>
       </c>
       <c r="I55" s="13">
         <v>0</v>
@@ -3254,25 +3254,25 @@
         <v>67</v>
       </c>
       <c r="B56" s="13">
-        <v>7981</v>
+        <v>9045</v>
       </c>
       <c r="C56" s="13">
-        <v>8396</v>
+        <v>9022</v>
       </c>
       <c r="D56" s="14">
-        <v>-4.9000000000000002E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="E56" s="13">
-        <v>7861</v>
+        <v>8912</v>
       </c>
       <c r="F56" s="13">
-        <v>8274</v>
+        <v>8892</v>
       </c>
       <c r="G56" s="13">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="H56" s="13">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I56" s="13">
         <v>0</v>
@@ -3292,25 +3292,25 @@
         <v>68</v>
       </c>
       <c r="B57" s="13">
-        <v>1499</v>
+        <v>1682</v>
       </c>
       <c r="C57" s="13">
-        <v>1939</v>
+        <v>2102</v>
       </c>
       <c r="D57" s="14">
-        <v>-0.22700000000000001</v>
+        <v>-0.2</v>
       </c>
       <c r="E57" s="13">
-        <v>1482</v>
+        <v>1665</v>
       </c>
       <c r="F57" s="13">
-        <v>1926</v>
+        <v>2087</v>
       </c>
       <c r="G57" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H57" s="13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I57" s="13">
         <v>0</v>
@@ -3330,19 +3330,19 @@
         <v>69</v>
       </c>
       <c r="B58" s="13">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C58" s="13">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D58" s="14">
-        <v>0.46300000000000002</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="E58" s="13">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F58" s="13">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G58" s="13">
         <v>0</v>
@@ -3368,19 +3368,19 @@
         <v>70</v>
       </c>
       <c r="B59" s="13">
-        <v>680</v>
+        <v>744</v>
       </c>
       <c r="C59" s="13">
-        <v>664</v>
+        <v>710</v>
       </c>
       <c r="D59" s="14">
-        <v>2.3E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E59" s="13">
-        <v>672</v>
+        <v>735</v>
       </c>
       <c r="F59" s="13">
-        <v>657</v>
+        <v>702</v>
       </c>
       <c r="G59" s="13" t="s">
         <v>17</v>
@@ -3406,19 +3406,19 @@
         <v>71</v>
       </c>
       <c r="B60" s="13">
-        <v>927</v>
+        <v>961</v>
       </c>
       <c r="C60" s="13">
-        <v>791</v>
+        <v>829</v>
       </c>
       <c r="D60" s="14">
-        <v>0.17100000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="E60" s="13">
-        <v>918</v>
+        <v>951</v>
       </c>
       <c r="F60" s="13">
-        <v>782</v>
+        <v>819</v>
       </c>
       <c r="G60" s="13" t="s">
         <v>17</v>
@@ -3444,25 +3444,25 @@
         <v>72</v>
       </c>
       <c r="B61" s="10">
-        <v>116060</v>
+        <v>126709</v>
       </c>
       <c r="C61" s="10">
-        <v>100340</v>
+        <v>108888</v>
       </c>
       <c r="D61" s="11">
-        <v>0.157</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="E61" s="10">
-        <v>114293</v>
+        <v>124820</v>
       </c>
       <c r="F61" s="10">
-        <v>99405</v>
+        <v>107890</v>
       </c>
       <c r="G61" s="10">
-        <v>1746</v>
+        <v>1868</v>
       </c>
       <c r="H61" s="10">
-        <v>932</v>
+        <v>995</v>
       </c>
       <c r="I61" s="10" t="s">
         <v>17</v>
@@ -3482,25 +3482,25 @@
         <v>73</v>
       </c>
       <c r="B62" s="13">
-        <v>24965</v>
+        <v>26639</v>
       </c>
       <c r="C62" s="13">
-        <v>12308</v>
+        <v>12948</v>
       </c>
       <c r="D62" s="14">
-        <v>1.028</v>
+        <v>1.0569999999999999</v>
       </c>
       <c r="E62" s="13">
-        <v>23675</v>
+        <v>25276</v>
       </c>
       <c r="F62" s="13">
-        <v>11805</v>
+        <v>12421</v>
       </c>
       <c r="G62" s="13">
-        <v>1270</v>
+        <v>1341</v>
       </c>
       <c r="H62" s="13">
-        <v>500</v>
+        <v>524</v>
       </c>
       <c r="I62" s="13" t="s">
         <v>17</v>
@@ -3520,25 +3520,25 @@
         <v>74</v>
       </c>
       <c r="B63" s="13">
-        <v>27780</v>
+        <v>30552</v>
       </c>
       <c r="C63" s="13">
-        <v>25896</v>
+        <v>28429</v>
       </c>
       <c r="D63" s="14">
-        <v>7.2999999999999995E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="E63" s="13">
-        <v>27553</v>
+        <v>30302</v>
       </c>
       <c r="F63" s="13">
-        <v>25701</v>
+        <v>28213</v>
       </c>
       <c r="G63" s="13">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="H63" s="13">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="I63" s="13">
         <v>0</v>
@@ -3558,25 +3558,25 @@
         <v>75</v>
       </c>
       <c r="B64" s="13">
-        <v>63315</v>
+        <v>69518</v>
       </c>
       <c r="C64" s="13">
-        <v>62135</v>
+        <v>67511</v>
       </c>
       <c r="D64" s="14">
-        <v>1.9E-2</v>
+        <v>0.03</v>
       </c>
       <c r="E64" s="13">
-        <v>63065</v>
+        <v>69241</v>
       </c>
       <c r="F64" s="13">
-        <v>61899</v>
+        <v>67256</v>
       </c>
       <c r="G64" s="13">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="H64" s="13">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="I64" s="13">
         <v>0</v>
@@ -3596,25 +3596,25 @@
         <v>76</v>
       </c>
       <c r="B65" s="10">
-        <v>1355</v>
+        <v>1501</v>
       </c>
       <c r="C65" s="10">
-        <v>1309</v>
+        <v>1498</v>
       </c>
       <c r="D65" s="11">
-        <v>3.5000000000000003E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="E65" s="10">
-        <v>1279</v>
+        <v>1416</v>
       </c>
       <c r="F65" s="10">
-        <v>1237</v>
+        <v>1411</v>
       </c>
       <c r="G65" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H65" s="10">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I65" s="10">
         <v>0</v>
@@ -3622,11 +3622,11 @@
       <c r="J65" s="10">
         <v>0</v>
       </c>
-      <c r="K65" s="10" t="s">
-        <v>17</v>
+      <c r="K65" s="10">
+        <v>53</v>
       </c>
       <c r="L65" s="10">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -3634,19 +3634,19 @@
         <v>77</v>
       </c>
       <c r="B66" s="13">
-        <v>1261</v>
+        <v>1397</v>
       </c>
       <c r="C66" s="13">
-        <v>1221</v>
+        <v>1392</v>
       </c>
       <c r="D66" s="14">
-        <v>3.3000000000000002E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E66" s="13">
-        <v>1261</v>
+        <v>1397</v>
       </c>
       <c r="F66" s="13">
-        <v>1221</v>
+        <v>1392</v>
       </c>
       <c r="G66" s="13">
         <v>0</v>
@@ -3672,25 +3672,25 @@
         <v>78</v>
       </c>
       <c r="B67" s="13">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C67" s="13">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="D67" s="14">
-        <v>6.5000000000000002E-2</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="E67" s="13" t="s">
         <v>17</v>
       </c>
       <c r="F67" s="13">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G67" s="13">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H67" s="13">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I67" s="13">
         <v>0</v>
@@ -3698,11 +3698,11 @@
       <c r="J67" s="13">
         <v>0</v>
       </c>
-      <c r="K67" s="13" t="s">
-        <v>17</v>
+      <c r="K67" s="13">
+        <v>53</v>
       </c>
       <c r="L67" s="13">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3710,37 +3710,37 @@
         <v>79</v>
       </c>
       <c r="B68" s="10">
-        <v>224406</v>
+        <v>243220</v>
       </c>
       <c r="C68" s="10">
-        <v>206577</v>
+        <v>225915</v>
       </c>
       <c r="D68" s="11">
-        <v>8.5999999999999993E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="E68" s="10">
-        <v>207867</v>
+        <v>225608</v>
       </c>
       <c r="F68" s="10">
-        <v>190443</v>
+        <v>208344</v>
       </c>
       <c r="G68" s="10">
-        <v>15378</v>
+        <v>16381</v>
       </c>
       <c r="H68" s="10">
-        <v>14974</v>
+        <v>16275</v>
       </c>
       <c r="I68" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J68" s="10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K68" s="10">
-        <v>1109</v>
+        <v>1177</v>
       </c>
       <c r="L68" s="10">
-        <v>1132</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
